--- a/data/zhiru-e21/data.xlsx
+++ b/data/zhiru-e21/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="students" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,14 +17,14 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="270">
   <si>
     <t xml:space="preserve">grp_id</t>
   </si>
@@ -555,14 +555,294 @@
   </si>
   <si>
     <t xml:space="preserve">float64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min_cap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max_cap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prj_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">institute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">topic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -644,8 +924,12 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -675,7 +959,7 @@
   <dimension ref="A1:U152"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A9:B9 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9067,11 +9351,11 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -9083,8 +9367,8 @@
   </sheetPr>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G11" activeCellId="1" sqref="A9:B9 G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9234,11 +9518,11 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -9248,20 +9532,979 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="R44" activeCellId="1" sqref="A9:B9 R44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.21"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>267</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -9271,77 +10514,85 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B1" s="0" t="n">
-        <v>1</v>
+      <c r="A1" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B8" s="0" t="n">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -9354,17 +10605,17 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A9:B9 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>